--- a/nba2k26_editor/Offsets/ImportStaff.xlsx
+++ b/nba2k26_editor/Offsets/ImportStaff.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X1"/>
+  <dimension ref="A1:Z1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,122 +439,132 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Face ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Height</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Position</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Staff Vitals - ARM_SCALE</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Staff Vitals - BODYLENGTH</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Staff Vitals - BODY_SHAPE</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Staff Vitals - CURRENT_TEAM</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Staff Vitals - EYE_COLOR</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Staff Vitals - FACEID</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Staff Vitals - FIRSTNAME</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Staff Vitals - GENDER</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Staff Vitals - HAIR_LENGTH</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Staff Vitals - HAND_SCALE</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Staff Vitals - HEIGHT_CM</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Staff Vitals - LASTNAME</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Staff Vitals - LOWER_SCALE</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Staff Vitals - NECK_HEAD_SCALE</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Staff Vitals - PERSONALITY</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Staff Vitals - POSITION</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Staff Vitals - SALARY</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Staff Vitals - SHOULDERWIDTH</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Staff Vitals - SKINCOLOR</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Staff Vitals - SKINTYPE</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Staff Vitals - UNIQUE_PHOTO_ID</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Staff Vitals - WINGSPAN_CM</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Staff Vitals - YEARS_IN_LEAGUE</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Staff Vitals - YEARS_LEFT</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>*Unique Photo ID</t>
         </is>
       </c>
     </row>
@@ -665,7 +675,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -676,80 +686,85 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Staff Style - SEVEN_SECONDS_PROFICIENCY</t>
+          <t>Seven Seconds Proficiency</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Defense Proficiency</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Grit &amp; Grind Proficiency</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Pace &amp;Space Proficiency</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Perimeter Centric Proficiency</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Post Centric Proficiency</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Staff Style - ACTIVE_SYSTEM</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Staff Style - BALANCED_PROFICIENCY</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Staff Style - DEFENSE_PROFICIENCY</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Staff Style - GRIT_&amp;_GRIND_PROFICIENCY</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Staff Style - GUARDS_VS_FORWARDS</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Staff Style - INSIDE_VS_OUTSIDE</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Staff Style - OFFENSE_VS_DEFENSE</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Staff Style - PACE_&amp;_SPACE_PROFICIENCY</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Staff Style - PERIMETER_CENTERIC_PROFICIENCY</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Staff Style - POST_CENTRIC_PROFICIENCY</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Staff Style - PREFERRED_SYSTEM</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Staff Style - STYLE_N#1</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Staff Style - STYLE_N#2</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Staff Style - STYLE_N#3</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Staff Style - TRIANGLE_PROFICIENCY</t>
         </is>
